--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3569230.081840199</v>
+        <v>3662700.339480532</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10758626.84165848</v>
+        <v>10782777.0258794</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918061.8468687801</v>
+        <v>881611.6927231771</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7343045.193919698</v>
+        <v>7340006.433661035</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208.4123957341124</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>51.98374871616001</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1432,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1543,10 +1545,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>312.7385393449467</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2775894524738</v>
+        <v>293.7161677605395</v>
       </c>
       <c r="D14" t="n">
-        <v>284.6877393021491</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>311.9350677537279</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>336.8807434231776</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>340.9264233349196</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>224.6124620687866</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>180.9998696403682</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>257.7569561516011</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>64.70894295561111</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>299.7357983599352</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>316.2426363375198</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.8366778634035</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>97.25151878009402</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>78.62017069967854</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>76.43866032803535</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>75.42574570439743</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>96.03050594049441</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>74.75971259578697</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>26.35711809130429</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.93685035151353</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
-        <v>119.7737230129081</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>149.5536469576354</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>216.216535887079</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>182.1423410052942</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>216.5276960180572</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>155.7143530705033</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.589351033561</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1855,13 @@
         <v>311.9350677537279</v>
       </c>
       <c r="F17" t="n">
-        <v>336.8807434231776</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>340.9264233349196</v>
       </c>
       <c r="H17" t="n">
-        <v>153.2032476723105</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>180.9998696403682</v>
       </c>
       <c r="V17" t="n">
-        <v>257.7569561516011</v>
+        <v>206.9858488407834</v>
       </c>
       <c r="W17" t="n">
         <v>279.2456663988792</v>
@@ -1910,7 +1912,7 @@
         <v>299.7357983599352</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>316.2426363375198</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2017,10 +2019,10 @@
         <v>96.03050594049441</v>
       </c>
       <c r="H19" t="n">
-        <v>74.75971259578698</v>
+        <v>74.75971259578697</v>
       </c>
       <c r="I19" t="n">
-        <v>26.35711809130426</v>
+        <v>26.35711809130428</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>18.93685035151351</v>
       </c>
       <c r="S19" t="n">
-        <v>119.7737230129075</v>
+        <v>119.7737230129081</v>
       </c>
       <c r="T19" t="n">
         <v>149.5536469576354</v>
       </c>
       <c r="U19" t="n">
-        <v>216.2165358870794</v>
+        <v>216.216535887079</v>
       </c>
       <c r="V19" t="n">
         <v>182.1423410052942</v>
@@ -2087,16 +2089,16 @@
         <v>284.6877393021491</v>
       </c>
       <c r="E20" t="n">
-        <v>311.9350677537279</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>336.8807434231776</v>
       </c>
       <c r="G20" t="n">
-        <v>268.1971100623778</v>
+        <v>340.9264233349196</v>
       </c>
       <c r="H20" t="n">
-        <v>224.6124620687866</v>
+        <v>148.8956790885185</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>39.19245946964202</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>180.9998696403682</v>
       </c>
       <c r="V20" t="n">
         <v>257.7569561516011</v>
@@ -2257,7 +2259,7 @@
         <v>74.75971259578697</v>
       </c>
       <c r="I22" t="n">
-        <v>26.35711809130424</v>
+        <v>26.35711809130427</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.93685035151351</v>
+        <v>18.93685035151352</v>
       </c>
       <c r="S22" t="n">
         <v>119.7737230129081</v>
@@ -2293,7 +2295,7 @@
         <v>149.5536469576354</v>
       </c>
       <c r="U22" t="n">
-        <v>216.216535887079</v>
+        <v>216.2165358870791</v>
       </c>
       <c r="V22" t="n">
         <v>182.1423410052942</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.19245946964203</v>
+        <v>39.19245946964202</v>
       </c>
       <c r="T23" t="n">
         <v>133.9226678210863</v>
       </c>
       <c r="U23" t="n">
-        <v>180.9998696403682</v>
+        <v>180.9998696403678</v>
       </c>
       <c r="V23" t="n">
         <v>257.7569561516011</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2496,7 @@
         <v>74.75971259578697</v>
       </c>
       <c r="I25" t="n">
-        <v>26.35711809130429</v>
+        <v>26.35711809130428</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.93685035151353</v>
+        <v>18.93685035151351</v>
       </c>
       <c r="S25" t="n">
         <v>119.7737230129081</v>
@@ -2530,7 +2532,7 @@
         <v>149.5536469576354</v>
       </c>
       <c r="U25" t="n">
-        <v>216.216535887079</v>
+        <v>216.2165358870783</v>
       </c>
       <c r="V25" t="n">
         <v>182.1423410052942</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2572,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515427</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2721,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124571</v>
+        <v>49.37728379124524</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2843,10 +2845,10 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210273</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2958,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.9570160514543</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3097,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,16 +3195,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124557</v>
@@ -3235,25 +3237,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>311.8037341262366</v>
+        <v>311.8037341262367</v>
       </c>
       <c r="C35" t="n">
         <v>294.3427842337636</v>
       </c>
       <c r="D35" t="n">
-        <v>283.752934083439</v>
+        <v>283.7529340834391</v>
       </c>
       <c r="E35" t="n">
-        <v>311.0002625350178</v>
+        <v>311.0002625350179</v>
       </c>
       <c r="F35" t="n">
-        <v>335.9459382044675</v>
+        <v>335.9459382044676</v>
       </c>
       <c r="G35" t="n">
-        <v>339.9916181162095</v>
+        <v>280.7348715629639</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6776568500765</v>
+        <v>223.6776568500766</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.25765425093191</v>
+        <v>38.25765425093192</v>
       </c>
       <c r="T35" t="n">
-        <v>15.2454358632127</v>
+        <v>132.9878626023763</v>
       </c>
       <c r="U35" t="n">
-        <v>180.065064421658</v>
+        <v>180.0650644216581</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>256.822150932891</v>
       </c>
       <c r="W35" t="n">
         <v>278.3108611801691</v>
@@ -3332,7 +3334,7 @@
         <v>298.8009931412251</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.3078311188096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3426,25 @@
         <v>108.9018726446934</v>
       </c>
       <c r="C37" t="n">
-        <v>96.31671356138389</v>
+        <v>96.31671356138392</v>
       </c>
       <c r="D37" t="n">
-        <v>77.68536548096841</v>
+        <v>77.68536548096844</v>
       </c>
       <c r="E37" t="n">
-        <v>75.50385510932523</v>
+        <v>75.50385510932526</v>
       </c>
       <c r="F37" t="n">
-        <v>74.4909404856873</v>
+        <v>74.49094048568733</v>
       </c>
       <c r="G37" t="n">
-        <v>95.09570072178428</v>
+        <v>95.09570072178431</v>
       </c>
       <c r="H37" t="n">
-        <v>73.82490737707684</v>
+        <v>73.82490737707687</v>
       </c>
       <c r="I37" t="n">
-        <v>25.42231287259417</v>
+        <v>25.42231287259418</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.0020451328034</v>
+        <v>18.00204513280342</v>
       </c>
       <c r="S37" t="n">
-        <v>133.7958012935596</v>
+        <v>118.838917794198</v>
       </c>
       <c r="T37" t="n">
-        <v>148.6188417389253</v>
+        <v>163.5757252382868</v>
       </c>
       <c r="U37" t="n">
         <v>215.2817306683689</v>
@@ -3490,7 +3492,7 @@
         <v>154.7795478517932</v>
       </c>
       <c r="Y37" t="n">
-        <v>147.6545458148508</v>
+        <v>147.6545458148509</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>311.8037341262366</v>
+        <v>311.8037341262367</v>
       </c>
       <c r="C38" t="n">
         <v>294.3427842337636</v>
       </c>
       <c r="D38" t="n">
-        <v>283.752934083439</v>
+        <v>283.7529340834391</v>
       </c>
       <c r="E38" t="n">
-        <v>311.0002625350178</v>
+        <v>311.0002625350179</v>
       </c>
       <c r="F38" t="n">
-        <v>335.9459382044675</v>
+        <v>335.9459382044676</v>
       </c>
       <c r="G38" t="n">
-        <v>339.9916181162095</v>
+        <v>339.9916181162096</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6776568500765</v>
+        <v>223.6776568500766</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.25765425093192</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>132.9878626023763</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>180.0650644216581</v>
       </c>
       <c r="V38" t="n">
-        <v>233.5681545358026</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>278.3108611801691</v>
+        <v>160.5684344410045</v>
       </c>
       <c r="X38" t="n">
         <v>298.8009931412251</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108.9018726446934</v>
+        <v>123.8587561440551</v>
       </c>
       <c r="C40" t="n">
-        <v>96.31671356138389</v>
+        <v>96.31671356138392</v>
       </c>
       <c r="D40" t="n">
-        <v>77.68536548096841</v>
+        <v>77.68536548096844</v>
       </c>
       <c r="E40" t="n">
-        <v>75.50385510932523</v>
+        <v>75.50385510932526</v>
       </c>
       <c r="F40" t="n">
-        <v>74.4909404856873</v>
+        <v>74.49094048568733</v>
       </c>
       <c r="G40" t="n">
-        <v>95.09570072178428</v>
+        <v>95.09570072178431</v>
       </c>
       <c r="H40" t="n">
-        <v>73.82490737707684</v>
+        <v>73.82490737707687</v>
       </c>
       <c r="I40" t="n">
-        <v>25.42231287259417</v>
+        <v>25.42231287259418</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.0020451328034</v>
+        <v>18.00204513280342</v>
       </c>
       <c r="S40" t="n">
         <v>118.838917794198</v>
@@ -3721,13 +3723,13 @@
         <v>181.2075357865841</v>
       </c>
       <c r="W40" t="n">
-        <v>230.5497742987084</v>
+        <v>215.5928907993471</v>
       </c>
       <c r="X40" t="n">
         <v>154.7795478517932</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.6545458148508</v>
+        <v>147.6545458148509</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>316.774409409166</v>
+        <v>298.1743766680007</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3918,7 @@
         <v>97.77987829572817</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.7788707448292</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>341.3179208523562</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>330.7280707020316</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>357.9753991536104</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>382.9210748230601</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>386.9667547348021</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>270.6527934686691</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>109.5929181096947</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>325.2859977987616</v>
+        <v>245.5846501717313</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>362.2829677374022</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.8770092632859</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>143.2918501799764</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>124.660502099561</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>122.4789917279178</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>121.4660771042799</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>142.0708373403769</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>120.8000439956694</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>72.39744949118676</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>64.97718175139596</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>195.5939783575178</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
-        <v>107.4344276857706</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>262.5680274179396</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>201.7546844703858</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.6296824334434</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1430.000155131663</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C11" t="n">
-        <v>1108.487271139325</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D11" t="n">
-        <v>797.6712054806478</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5039,10 +5041,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3273.096984522142</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3114.568869854437</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638545</v>
+        <v>2908.488026076347</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243048</v>
+        <v>2624.874771680849</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921007</v>
+        <v>2319.555749358808</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425608</v>
+        <v>1993.539624045802</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580262</v>
+        <v>1650.849925018064</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5124,46 +5126,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5191,10 +5193,10 @@
         <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315257</v>
@@ -5203,7 +5205,7 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1878.956586467774</v>
+        <v>1743.508888527414</v>
       </c>
       <c r="C14" t="n">
-        <v>1580.696395101639</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D14" t="n">
-        <v>1293.133022069165</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E14" t="n">
-        <v>978.0470950451975</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F14" t="n">
-        <v>637.7635158298665</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>293.3933912491397</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U14" t="n">
-        <v>3142.777670457283</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V14" t="n">
-        <v>2882.417108687989</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="W14" t="n">
-        <v>2817.054540045958</v>
+        <v>2751.364919984208</v>
       </c>
       <c r="X14" t="n">
-        <v>2514.291107359154</v>
+        <v>2425.348794671201</v>
       </c>
       <c r="Y14" t="n">
-        <v>2194.854100957619</v>
+        <v>2082.659095643463</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5348,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>596.6974014218713</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>498.463544068241</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>419.0492302301819</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>341.8384622220653</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>265.6508402984316</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6503292474271</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>93.13546803956149</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791195</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279959</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>632.181730276492</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760409</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>1908.166416420297</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>1787.1828578214</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.118567965203</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1417.718026665123</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1233.735864033513</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1015.021019570829</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>857.7337942470879</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>707.6435406778344</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1806.826066875374</v>
+        <v>1538.673007252443</v>
       </c>
       <c r="C17" t="n">
-        <v>1508.565875509239</v>
+        <v>1240.412815886308</v>
       </c>
       <c r="D17" t="n">
-        <v>1221.002502476765</v>
+        <v>952.8494428538341</v>
       </c>
       <c r="E17" t="n">
-        <v>905.9165754527972</v>
+        <v>637.7635158298665</v>
       </c>
       <c r="F17" t="n">
-        <v>565.6329962374664</v>
+        <v>637.7635158298665</v>
       </c>
       <c r="G17" t="n">
-        <v>221.2628716567395</v>
+        <v>293.3933912491397</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3286.017478710542</v>
+        <v>3286.017478710543</v>
       </c>
       <c r="T17" t="n">
-        <v>3150.742056669041</v>
+        <v>3150.742056669042</v>
       </c>
       <c r="U17" t="n">
         <v>2967.913905517154</v>
       </c>
       <c r="V17" t="n">
-        <v>2707.55334374786</v>
+        <v>2758.837290526464</v>
       </c>
       <c r="W17" t="n">
-        <v>2425.487014052022</v>
+        <v>2476.770960830627</v>
       </c>
       <c r="X17" t="n">
-        <v>2122.723581365219</v>
+        <v>2174.007528143823</v>
       </c>
       <c r="Y17" t="n">
-        <v>2122.723581365219</v>
+        <v>1854.570521742288</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="19">
@@ -5650,7 +5652,7 @@
         <v>596.6974014218713</v>
       </c>
       <c r="C19" t="n">
-        <v>498.4635440682409</v>
+        <v>498.463544068241</v>
       </c>
       <c r="D19" t="n">
         <v>419.0492302301819</v>
@@ -5659,16 +5661,16 @@
         <v>341.8384622220653</v>
       </c>
       <c r="F19" t="n">
-        <v>265.6508402984315</v>
+        <v>265.6508402984316</v>
       </c>
       <c r="G19" t="n">
         <v>168.6503292474271</v>
       </c>
       <c r="H19" t="n">
-        <v>93.13546803956146</v>
+        <v>93.13546803956149</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5677,28 +5679,28 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760401</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
         <v>1908.166416420297</v>
       </c>
       <c r="S19" t="n">
-        <v>1787.182857821401</v>
+        <v>1787.1828578214</v>
       </c>
       <c r="T19" t="n">
         <v>1636.118567965203</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1805.492633667227</v>
+        <v>1487.389060473839</v>
       </c>
       <c r="C20" t="n">
-        <v>1507.232442301092</v>
+        <v>1189.128869107704</v>
       </c>
       <c r="D20" t="n">
-        <v>1219.669069268618</v>
+        <v>901.5654960752297</v>
       </c>
       <c r="E20" t="n">
-        <v>904.58314224465</v>
+        <v>901.5654960752297</v>
       </c>
       <c r="F20" t="n">
-        <v>564.2995630293192</v>
+        <v>561.2819168598987</v>
       </c>
       <c r="G20" t="n">
-        <v>293.3933912491396</v>
+        <v>216.9117922791718</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,7 +5752,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5780,22 +5782,22 @@
         <v>3286.017478710542</v>
       </c>
       <c r="T20" t="n">
-        <v>3286.017478710542</v>
+        <v>3150.742056669041</v>
       </c>
       <c r="U20" t="n">
-        <v>3286.017478710542</v>
+        <v>2967.913905517154</v>
       </c>
       <c r="V20" t="n">
-        <v>3025.656916941248</v>
+        <v>2707.55334374786</v>
       </c>
       <c r="W20" t="n">
-        <v>2743.59058724541</v>
+        <v>2425.487014052022</v>
       </c>
       <c r="X20" t="n">
-        <v>2440.827154558607</v>
+        <v>2122.723581365219</v>
       </c>
       <c r="Y20" t="n">
-        <v>2121.390148157072</v>
+        <v>1803.286574963684</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1995.008674942549</v>
+        <v>596.6974014218714</v>
       </c>
       <c r="C22" t="n">
-        <v>1896.774817588919</v>
+        <v>498.463544068241</v>
       </c>
       <c r="D22" t="n">
-        <v>1817.36050375086</v>
+        <v>419.0492302301819</v>
       </c>
       <c r="E22" t="n">
-        <v>1740.149735742743</v>
+        <v>341.8384622220653</v>
       </c>
       <c r="F22" t="n">
-        <v>1663.96211381911</v>
+        <v>265.6508402984315</v>
       </c>
       <c r="G22" t="n">
-        <v>1566.961602768105</v>
+        <v>168.6503292474271</v>
       </c>
       <c r="H22" t="n">
-        <v>1491.44674156024</v>
+        <v>93.13546803956147</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3306.477689940975</v>
+        <v>1908.166416420297</v>
       </c>
       <c r="S22" t="n">
-        <v>3185.494131342078</v>
+        <v>1787.1828578214</v>
       </c>
       <c r="T22" t="n">
-        <v>3034.429841485881</v>
+        <v>1636.118567965203</v>
       </c>
       <c r="U22" t="n">
-        <v>2816.029300185801</v>
+        <v>1417.718026665123</v>
       </c>
       <c r="V22" t="n">
-        <v>2632.047137554191</v>
+        <v>1233.735864033513</v>
       </c>
       <c r="W22" t="n">
-        <v>2413.332293091506</v>
+        <v>1015.021019570829</v>
       </c>
       <c r="X22" t="n">
-        <v>2256.045067767766</v>
+        <v>857.733794247088</v>
       </c>
       <c r="Y22" t="n">
-        <v>2105.954814198512</v>
+        <v>707.6435406778345</v>
       </c>
     </row>
     <row r="23">
@@ -5972,67 +5974,67 @@
         <v>1301.124196069041</v>
       </c>
       <c r="E23" t="n">
-        <v>986.0382690450735</v>
+        <v>986.0382690450733</v>
       </c>
       <c r="F23" t="n">
-        <v>645.7546898297428</v>
+        <v>645.7546898297423</v>
       </c>
       <c r="G23" t="n">
         <v>301.3845652490158</v>
       </c>
       <c r="H23" t="n">
-        <v>74.50329043205966</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="I23" t="n">
-        <v>74.50329043205966</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J23" t="n">
-        <v>430.7880704114381</v>
+        <v>263.3824213910851</v>
       </c>
       <c r="K23" t="n">
-        <v>764.6074441012845</v>
+        <v>597.2017950809316</v>
       </c>
       <c r="L23" t="n">
-        <v>1374.744278649024</v>
+        <v>1048.23600832934</v>
       </c>
       <c r="M23" t="n">
-        <v>1908.276183320949</v>
+        <v>1581.767913001265</v>
       </c>
       <c r="N23" t="n">
-        <v>2455.055000379731</v>
+        <v>2128.546730060047</v>
       </c>
       <c r="O23" t="n">
-        <v>2958.027471259068</v>
+        <v>2704.506005843551</v>
       </c>
       <c r="P23" t="n">
-        <v>3352.801837616245</v>
+        <v>3417.861093290497</v>
       </c>
       <c r="Q23" t="n">
-        <v>3601.088199371928</v>
+        <v>3666.147455046179</v>
       </c>
       <c r="R23" t="n">
-        <v>3725.164521602983</v>
+        <v>3725.164521602981</v>
       </c>
       <c r="S23" t="n">
-        <v>3685.576178704354</v>
+        <v>3685.576178704353</v>
       </c>
       <c r="T23" t="n">
-        <v>3550.300756662853</v>
+        <v>3550.300756662852</v>
       </c>
       <c r="U23" t="n">
-        <v>3367.472605510966</v>
+        <v>3367.472605510965</v>
       </c>
       <c r="V23" t="n">
-        <v>3107.112043741672</v>
+        <v>3107.112043741671</v>
       </c>
       <c r="W23" t="n">
-        <v>2825.045714045834</v>
+        <v>2825.045714045833</v>
       </c>
       <c r="X23" t="n">
-        <v>2522.282281359031</v>
+        <v>2522.28228135903</v>
       </c>
       <c r="Y23" t="n">
-        <v>2202.845274957495</v>
+        <v>2202.845274957494</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6062,19 @@
         <v>184.0124763926542</v>
       </c>
       <c r="H24" t="n">
-        <v>93.51058203052173</v>
+        <v>93.51058203052168</v>
       </c>
       <c r="I24" t="n">
-        <v>74.50329043205966</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J24" t="n">
-        <v>168.1805599226769</v>
+        <v>168.180559922677</v>
       </c>
       <c r="K24" t="n">
-        <v>406.444758903024</v>
+        <v>406.4447589030241</v>
       </c>
       <c r="L24" t="n">
-        <v>773.1429192156893</v>
+        <v>773.1429192156895</v>
       </c>
       <c r="M24" t="n">
         <v>1220.419244438005</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>604.6885754217475</v>
+        <v>2394.56737493636</v>
       </c>
       <c r="C25" t="n">
-        <v>506.4547180681172</v>
+        <v>2296.33351758273</v>
       </c>
       <c r="D25" t="n">
-        <v>427.0404042300581</v>
+        <v>2216.919203744671</v>
       </c>
       <c r="E25" t="n">
-        <v>349.8296362219415</v>
+        <v>2139.708435736554</v>
       </c>
       <c r="F25" t="n">
-        <v>273.6420142983078</v>
+        <v>2063.520813812921</v>
       </c>
       <c r="G25" t="n">
-        <v>176.6415032473034</v>
+        <v>1966.520302761916</v>
       </c>
       <c r="H25" t="n">
-        <v>101.1266420394377</v>
+        <v>1891.00544155405</v>
       </c>
       <c r="I25" t="n">
-        <v>74.50329043205966</v>
+        <v>1864.382089946672</v>
       </c>
       <c r="J25" t="n">
-        <v>119.6259228789952</v>
+        <v>1909.504722393608</v>
       </c>
       <c r="K25" t="n">
-        <v>323.6131058278715</v>
+        <v>2113.491905342484</v>
       </c>
       <c r="L25" t="n">
-        <v>640.1729042763677</v>
+        <v>2430.05170379098</v>
       </c>
       <c r="M25" t="n">
-        <v>984.3299498759167</v>
+        <v>2774.208749390529</v>
       </c>
       <c r="N25" t="n">
-        <v>1325.738326581782</v>
+        <v>3115.617126096394</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.067925502195</v>
+        <v>3414.946725016807</v>
       </c>
       <c r="P25" t="n">
-        <v>1857.675425935854</v>
+        <v>3647.554225450467</v>
       </c>
       <c r="Q25" t="n">
-        <v>1935.285722088369</v>
+        <v>3725.164521602981</v>
       </c>
       <c r="R25" t="n">
-        <v>1916.157590420173</v>
+        <v>3706.036389934786</v>
       </c>
       <c r="S25" t="n">
-        <v>1795.174031821276</v>
+        <v>3585.052831335889</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.109741965079</v>
+        <v>3433.988541479691</v>
       </c>
       <c r="U25" t="n">
-        <v>1425.709200664999</v>
+        <v>3215.588000179612</v>
       </c>
       <c r="V25" t="n">
-        <v>1241.727038033389</v>
+        <v>3031.605837548002</v>
       </c>
       <c r="W25" t="n">
-        <v>1023.012193570705</v>
+        <v>2812.890993085318</v>
       </c>
       <c r="X25" t="n">
-        <v>865.7249682469641</v>
+        <v>2655.603767761577</v>
       </c>
       <c r="Y25" t="n">
-        <v>715.6347146777106</v>
+        <v>2505.513514192324</v>
       </c>
     </row>
     <row r="26">
@@ -6227,13 +6229,13 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>875.9322461484389</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N26" t="n">
         <v>2852.295579285459</v>
@@ -6266,7 +6268,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6303,28 +6305,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2517.474464532008</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>2395.987914552175</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>2293.320908087912</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>2192.857447453593</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>2093.417132903755</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>1973.163929226547</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H28" t="n">
-        <v>1874.396375392479</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>1824.520331158897</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>1916.148348858239</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>2166.640917059522</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>2529.706100760425</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>2920.36853161238</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>3308.282293570651</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>3654.117277743471</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>3933.230163429537</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>4057.345844834459</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>4014.965020540061</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>3870.728769314961</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>3696.41178683256</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>3454.758552906277</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>3247.523697648463</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>3005.556160559576</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>2825.016242609632</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>2651.673296414175</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388314</v>
@@ -6455,37 +6457,37 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>625.3777437664576</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,16 +6499,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>2517.474464532008</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913843</v>
+        <v>2192.857447453592</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>1973.163929226547</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>1874.396375392478</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>1824.520331158897</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>1916.148348858239</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>2166.640917059522</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>2529.706100760424</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.36853161238</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.282293570651</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.117277743471</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429537</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>4014.96502054006</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>3870.72876931496</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>3696.411786832559</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>3454.758552906276</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>3247.523697648463</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>3005.556160559575</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>2825.016242609631</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>2651.673296414174</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6700,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>924.7493799910144</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1863.465327102306</v>
+        <v>1909.315497911348</v>
       </c>
       <c r="N32" t="n">
-        <v>2410.244144161089</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490543</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6734,7 +6736,7 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6753,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803188</v>
@@ -6795,10 +6797,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415473</v>
@@ -6856,16 +6858,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,7 +6876,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6886,22 +6888,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1873.291100293774</v>
+        <v>1813.435800745041</v>
       </c>
       <c r="C35" t="n">
-        <v>1575.975156623305</v>
+        <v>1516.119857074572</v>
       </c>
       <c r="D35" t="n">
-        <v>1289.356031286498</v>
+        <v>1229.500731737765</v>
       </c>
       <c r="E35" t="n">
-        <v>975.2143519581972</v>
+        <v>915.3590524094642</v>
       </c>
       <c r="F35" t="n">
-        <v>635.8750204385331</v>
+        <v>576.0197208898001</v>
       </c>
       <c r="G35" t="n">
         <v>292.4491435534729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6953,34 +6955,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
         <v>3286.961726406209</v>
       </c>
       <c r="T35" t="n">
-        <v>3271.562296241348</v>
+        <v>3152.630552060374</v>
       </c>
       <c r="U35" t="n">
-        <v>3089.678392785127</v>
+        <v>2970.746648604154</v>
       </c>
       <c r="V35" t="n">
-        <v>3089.678392785127</v>
+        <v>2711.330334530526</v>
       </c>
       <c r="W35" t="n">
-        <v>2808.556310784957</v>
+        <v>2430.208252530355</v>
       </c>
       <c r="X35" t="n">
-        <v>2506.73712579382</v>
+        <v>2128.389067539219</v>
       </c>
       <c r="Y35" t="n">
-        <v>2188.244367087952</v>
+        <v>2128.389067539219</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1988.398941072882</v>
+        <v>1988.398941072881</v>
       </c>
       <c r="C37" t="n">
         <v>1891.109331414918</v>
       </c>
       <c r="D37" t="n">
-        <v>1812.639265272526</v>
+        <v>1812.639265272525</v>
       </c>
       <c r="E37" t="n">
         <v>1736.372744960076</v>
@@ -7084,16 +7086,16 @@
         <v>1661.129370732109</v>
       </c>
       <c r="G37" t="n">
-        <v>1565.073107376772</v>
+        <v>1565.073107376771</v>
       </c>
       <c r="H37" t="n">
-        <v>1490.502493864573</v>
+        <v>1490.502493864572</v>
       </c>
       <c r="I37" t="n">
         <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K37" t="n">
         <v>1713.933205348673</v>
@@ -7105,37 +7107,37 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O37" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>3307.421937636642</v>
+        <v>3307.421937636641</v>
       </c>
       <c r="S37" t="n">
-        <v>3172.274663602743</v>
+        <v>3187.382626733411</v>
       </c>
       <c r="T37" t="n">
-        <v>3022.154621442213</v>
+        <v>3022.154621442212</v>
       </c>
       <c r="U37" t="n">
-        <v>2804.6983278378</v>
+        <v>2804.698327837799</v>
       </c>
       <c r="V37" t="n">
         <v>2621.660412901856</v>
       </c>
       <c r="W37" t="n">
-        <v>2403.889816134839</v>
+        <v>2403.889816134838</v>
       </c>
       <c r="X37" t="n">
-        <v>2247.546838506765</v>
+        <v>2247.546838506764</v>
       </c>
       <c r="Y37" t="n">
         <v>2098.400832633178</v>
@@ -7151,13 +7153,13 @@
         <v>1873.291100293774</v>
       </c>
       <c r="C38" t="n">
-        <v>1575.975156623305</v>
+        <v>1575.975156623306</v>
       </c>
       <c r="D38" t="n">
         <v>1289.356031286498</v>
       </c>
       <c r="E38" t="n">
-        <v>975.2143519581972</v>
+        <v>975.2143519581973</v>
       </c>
       <c r="F38" t="n">
         <v>635.8750204385331</v>
@@ -7166,55 +7168,55 @@
         <v>292.4491435534729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3286.961726406209</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3152.630552060374</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2970.746648604154</v>
       </c>
       <c r="V38" t="n">
-        <v>3089.678392785127</v>
+        <v>2970.746648604154</v>
       </c>
       <c r="W38" t="n">
         <v>2808.556310784957</v>
       </c>
       <c r="X38" t="n">
-        <v>2506.73712579382</v>
+        <v>2506.737125793821</v>
       </c>
       <c r="Y38" t="n">
         <v>2188.244367087952</v>
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>590.0876675522038</v>
+        <v>1988.398941072881</v>
       </c>
       <c r="C40" t="n">
-        <v>492.7980578942402</v>
+        <v>1891.109331414918</v>
       </c>
       <c r="D40" t="n">
-        <v>414.3279917518479</v>
+        <v>1812.639265272525</v>
       </c>
       <c r="E40" t="n">
-        <v>338.0614714393981</v>
+        <v>1736.372744960076</v>
       </c>
       <c r="F40" t="n">
-        <v>262.8180972114312</v>
+        <v>1661.129370732109</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7618338560935</v>
+        <v>1565.073107376771</v>
       </c>
       <c r="H40" t="n">
-        <v>92.1912203438947</v>
+        <v>1490.502493864572</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1909.110664115964</v>
+        <v>3307.421937636641</v>
       </c>
       <c r="S40" t="n">
-        <v>1789.071353212733</v>
+        <v>3187.382626733411</v>
       </c>
       <c r="T40" t="n">
-        <v>1638.951311052203</v>
+        <v>3037.262584572881</v>
       </c>
       <c r="U40" t="n">
-        <v>1421.49501744779</v>
+        <v>2819.806290968468</v>
       </c>
       <c r="V40" t="n">
-        <v>1238.457102511846</v>
+        <v>2636.768376032524</v>
       </c>
       <c r="W40" t="n">
-        <v>1005.578542614161</v>
+        <v>2418.997779265507</v>
       </c>
       <c r="X40" t="n">
-        <v>849.235564986087</v>
+        <v>2262.654801637433</v>
       </c>
       <c r="Y40" t="n">
-        <v>700.0895591125002</v>
+        <v>2113.508795763846</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.472742224994</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.959858232655</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E41" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F41" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.55555606017</v>
@@ -7427,34 +7429,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3056.683942306248</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3056.683942306248</v>
       </c>
       <c r="W41" t="n">
-        <v>3020.28679928713</v>
+        <v>2751.364919984208</v>
       </c>
       <c r="X41" t="n">
-        <v>2700.31264836878</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y41" t="n">
-        <v>2357.622949341042</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052942</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G43" t="n">
         <v>215.1557144998336</v>
@@ -7570,37 +7572,37 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q43" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
         <v>1489.515482921749</v>
@@ -7612,7 +7614,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2157.988897982213</v>
+        <v>1358.621238582484</v>
       </c>
       <c r="C44" t="n">
-        <v>1813.223321363672</v>
+        <v>1358.621238582484</v>
       </c>
       <c r="D44" t="n">
-        <v>1479.154563078791</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E44" t="n">
-        <v>1117.563250802417</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F44" t="n">
-        <v>730.7742863346796</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G44" t="n">
-        <v>339.8987765015461</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>3214.905904326651</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W44" t="n">
-        <v>2886.334189378406</v>
+        <v>2366.477270039278</v>
       </c>
       <c r="X44" t="n">
-        <v>2886.334189378406</v>
+        <v>2040.461144726271</v>
       </c>
       <c r="Y44" t="n">
-        <v>2520.391797724465</v>
+        <v>1697.771445698533</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7718,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7730,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7745,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2350981887171</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C46" t="n">
-        <v>777.4958555826802</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D46" t="n">
-        <v>651.5761564922145</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E46" t="n">
-        <v>527.8600032316915</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F46" t="n">
-        <v>405.1669960556512</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
-        <v>261.6610997522402</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H46" t="n">
-        <v>139.640853291968</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>135.3501700885838</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>363.052774246925</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3279939048859</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M46" t="n">
-        <v>1071.2004607139</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1436.324258629229</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1759.369278759107</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>2015.692200402231</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2117.017917764211</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2051.384400843609</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2051.384400843609</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>1853.814725735006</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1853.814725735006</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
-        <v>1745.295101809985</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1480.074872094894</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>1276.282261518747</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>1079.686622697087</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>144.9874484840803</v>
+        <v>138.916480986303</v>
       </c>
       <c r="K8" t="n">
-        <v>166.0475726275707</v>
+        <v>156.948766084377</v>
       </c>
       <c r="L8" t="n">
-        <v>168.7221898480439</v>
+        <v>157.434315759701</v>
       </c>
       <c r="M8" t="n">
-        <v>155.7466147399168</v>
+        <v>143.1866798761445</v>
       </c>
       <c r="N8" t="n">
-        <v>153.6063452906096</v>
+        <v>140.8431775497338</v>
       </c>
       <c r="O8" t="n">
-        <v>158.5160769507976</v>
+        <v>146.4641795739158</v>
       </c>
       <c r="P8" t="n">
-        <v>170.1393000955775</v>
+        <v>159.8532845149091</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.4268687434053</v>
+        <v>168.702499413953</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>105.3614572728443</v>
+        <v>101.7456306214592</v>
       </c>
       <c r="K9" t="n">
-        <v>101.1352448063836</v>
+        <v>94.95522113877081</v>
       </c>
       <c r="L9" t="n">
-        <v>89.19837189532032</v>
+        <v>80.88856741192477</v>
       </c>
       <c r="M9" t="n">
-        <v>84.53790069323989</v>
+        <v>74.8407508092734</v>
       </c>
       <c r="N9" t="n">
-        <v>72.22118059063237</v>
+        <v>62.26737600400733</v>
       </c>
       <c r="O9" t="n">
-        <v>88.51250826197008</v>
+        <v>79.40672169877932</v>
       </c>
       <c r="P9" t="n">
-        <v>90.56744102148697</v>
+        <v>83.25924452420234</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.9653665822935</v>
+        <v>106.0800307639975</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>103.1444611129063</v>
       </c>
       <c r="L10" t="n">
-        <v>106.5517792193209</v>
+        <v>101.7815223625789</v>
       </c>
       <c r="M10" t="n">
-        <v>109.0527165611161</v>
+        <v>104.0231495450465</v>
       </c>
       <c r="N10" t="n">
-        <v>98.52279185160624</v>
+        <v>93.61281669754374</v>
       </c>
       <c r="O10" t="n">
-        <v>111.5200162848689</v>
+        <v>106.9848595275848</v>
       </c>
       <c r="P10" t="n">
-        <v>114.6791559073017</v>
+        <v>110.7985458289052</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>160.7097184841728</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>73.72404535774444</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>274.8351763665433</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>21.7498204251479</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473924</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>277.832108723649</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>78.40458911672761</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.87788936075745</v>
+        <v>14.80635997154374</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.3463093107756</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>10.22887645342324</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>24.58158739187553</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.19245946964203</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>133.9226678210863</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>214.536723443268</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>336.8807434231776</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>71.4092143964761</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>50.77110731081768</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>316.2426363375198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>72.72931327254184</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>75.71678298026808</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>133.9226678210863</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>180.9998696403682</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>59.2567465532457</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25205,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>117.7424267391635</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>256.822150932891</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>315.3078311188096</v>
       </c>
     </row>
     <row r="36">
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.25765425093191</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>132.9878626023762</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>180.065064421658</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>23.25399639708832</v>
+        <v>256.822150932891</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>117.7424267391647</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958323</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.981554650710393</v>
+        <v>24.5815873918757</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>17.6219588542746</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.23279086952449</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>179.9629992209688</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>227.0402010402506</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>194.2043694417889</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>56.6811819270892</v>
       </c>
       <c r="X44" t="n">
-        <v>345.7761297598176</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>165.8140544127905</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>262.2568672869615</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>120.748244719406</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>686480.5284255382</v>
+        <v>682137.7655703095</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>603617.5032796146</v>
+        <v>584377.2487876038</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>603617.5032796146</v>
+        <v>603617.5032796147</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652706.4895555972</v>
+        <v>652706.4895555971</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652706.4895555972</v>
+        <v>652706.4895555971</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652706.4895555972</v>
+        <v>652706.4895555971</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>604398.8134814126</v>
+        <v>604398.8134814125</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>604398.8134814126</v>
+        <v>604398.8134814125</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>584377.2487876038</v>
+        <v>584377.2487876037</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>554206.218356448</v>
+        <v>584377.2487876038</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>819276.3387170386</v>
+      </c>
+      <c r="C2" t="n">
         <v>819276.3387170383</v>
       </c>
-      <c r="C2" t="n">
-        <v>819276.3387170385</v>
-      </c>
       <c r="D2" t="n">
-        <v>819310.1566301275</v>
+        <v>819315.8503695083</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898426</v>
+        <v>764531.0098898431</v>
       </c>
       <c r="F2" t="n">
-        <v>790184.6825458573</v>
+        <v>764531.0098898428</v>
       </c>
       <c r="G2" t="n">
-        <v>790184.682545857</v>
+        <v>790184.6825458575</v>
       </c>
       <c r="H2" t="n">
-        <v>790184.6825458569</v>
+        <v>790184.6825458572</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642826</v>
+        <v>821041.7698642823</v>
       </c>
       <c r="J2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.769864283</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642816</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.769864282</v>
+        <v>821041.7698642827</v>
       </c>
       <c r="M2" t="n">
-        <v>791226.4294815882</v>
+        <v>791226.429481588</v>
       </c>
       <c r="N2" t="n">
-        <v>791226.4294815881</v>
+        <v>791226.4294815878</v>
       </c>
       <c r="O2" t="n">
-        <v>764531.0098898431</v>
+        <v>764531.0098898427</v>
       </c>
       <c r="P2" t="n">
-        <v>724302.9693149672</v>
+        <v>764531.0098898428</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26371,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90506.66943668084</v>
+        <v>105744.7885572813</v>
       </c>
       <c r="E3" t="n">
-        <v>1076443.748542095</v>
+        <v>1062148.850728832</v>
       </c>
       <c r="F3" t="n">
-        <v>18416.1325599528</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18416.13255995299</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26562.76226526361</v>
+        <v>26562.76226526352</v>
       </c>
       <c r="J3" t="n">
-        <v>40892.28926881512</v>
+        <v>40892.28926881518</v>
       </c>
       <c r="K3" t="n">
-        <v>18416.13255995299</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>18416.13255995298</v>
       </c>
       <c r="M3" t="n">
         <v>180764.4098400354</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>411458.8918351498</v>
+        <v>406423.8180755476</v>
       </c>
       <c r="E4" t="n">
-        <v>58825.50137861088</v>
+        <v>58825.50137861087</v>
       </c>
       <c r="F4" t="n">
-        <v>73351.801498867</v>
+        <v>58825.50137861086</v>
       </c>
       <c r="G4" t="n">
-        <v>73351.801498867</v>
+        <v>73351.80149886699</v>
       </c>
       <c r="H4" t="n">
         <v>73351.801498867</v>
       </c>
       <c r="I4" t="n">
-        <v>87566.65194705538</v>
+        <v>87566.65194705532</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173091</v>
+        <v>84858.15940173087</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173095</v>
+        <v>84858.15940173087</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173094</v>
+        <v>84858.15940173084</v>
       </c>
       <c r="M4" t="n">
-        <v>73946.39635085608</v>
+        <v>73946.39635085601</v>
       </c>
       <c r="N4" t="n">
-        <v>73946.39635085608</v>
+        <v>73946.396350856</v>
       </c>
       <c r="O4" t="n">
-        <v>58825.5013786109</v>
+        <v>58825.50137861086</v>
       </c>
       <c r="P4" t="n">
-        <v>35807.82842166327</v>
+        <v>58825.50137861085</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35931.44532915114</v>
+        <v>36319.3313245098</v>
       </c>
       <c r="E5" t="n">
+        <v>78255.49332178177</v>
+      </c>
+      <c r="F5" t="n">
         <v>78255.49332178176</v>
-      </c>
-      <c r="F5" t="n">
-        <v>80190.77563201012</v>
       </c>
       <c r="G5" t="n">
         <v>80190.77563201012</v>
@@ -26488,10 +26490,10 @@
         <v>80190.77563201012</v>
       </c>
       <c r="I5" t="n">
-        <v>86264.06787191606</v>
+        <v>86264.06787191604</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26502,16 @@
         <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
-        <v>80269.36377194186</v>
+        <v>80269.36377194185</v>
       </c>
       <c r="N5" t="n">
-        <v>80269.36377194186</v>
+        <v>80269.36377194185</v>
       </c>
       <c r="O5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>76320.2110115534</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343999.4887212177</v>
+        <v>343999.4887212182</v>
       </c>
       <c r="C6" t="n">
-        <v>343999.488721218</v>
+        <v>343999.4887212178</v>
       </c>
       <c r="D6" t="n">
-        <v>281413.1500291456</v>
+        <v>270827.9124121695</v>
       </c>
       <c r="E6" t="n">
-        <v>-448993.7333526446</v>
+        <v>-434698.8355393815</v>
       </c>
       <c r="F6" t="n">
+        <v>627450.0151894502</v>
+      </c>
+      <c r="G6" t="n">
         <v>618225.9728550274</v>
       </c>
-      <c r="G6" t="n">
-        <v>636642.10541498</v>
-      </c>
       <c r="H6" t="n">
-        <v>636642.1054149799</v>
+        <v>636642.1054149801</v>
       </c>
       <c r="I6" t="n">
         <v>620648.2877800475</v>
       </c>
       <c r="J6" t="n">
-        <v>605913.3795189313</v>
+        <v>605913.3795189308</v>
       </c>
       <c r="K6" t="n">
-        <v>628389.5362277931</v>
+        <v>646805.6687877446</v>
       </c>
       <c r="L6" t="n">
-        <v>646805.6687877449</v>
+        <v>628389.5362277926</v>
       </c>
       <c r="M6" t="n">
-        <v>456246.2595187549</v>
+        <v>456246.2595187547</v>
       </c>
       <c r="N6" t="n">
-        <v>637010.6693587902</v>
+        <v>637010.66935879</v>
       </c>
       <c r="O6" t="n">
-        <v>627450.0151894505</v>
+        <v>627450.0151894501</v>
       </c>
       <c r="P6" t="n">
-        <v>612174.9298817505</v>
+        <v>627450.0151894502</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G2" t="n">
         <v>69.99530231853382</v>
@@ -26707,25 +26709,25 @@
         <v>69.99530231853382</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="N2" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>105.6809784014283</v>
+        <v>123.4739139683393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26767,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>931.2911304007457</v>
+        <v>931.2911304007454</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,13 +26822,13 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
-        <v>23.02016569994122</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.02016569994124</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.95497091865133</v>
+        <v>23.95497091865129</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994124</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>23.02016569994123</v>
       </c>
       <c r="M2" t="n">
-        <v>23.9549709186514</v>
+        <v>23.95497091865139</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>105.6809784014283</v>
+        <v>123.4739139683393</v>
       </c>
       <c r="E3" t="n">
-        <v>984.0957221918698</v>
+        <v>966.302786624959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.88967499845296</v>
+        <v>99.88967499845262</v>
       </c>
       <c r="J4" t="n">
-        <v>83.04533080786894</v>
+        <v>83.04533080786928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994122</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>23.02016569994124</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.95497091865133</v>
+        <v>23.95497091865129</v>
       </c>
       <c r="P2" t="n">
-        <v>23.02016569994124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>335.1238259547475</v>
+        <v>334.3912755974626</v>
       </c>
       <c r="I8" t="n">
-        <v>194.0969310987634</v>
+        <v>191.3392943211018</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>123.1817500637277</v>
+        <v>118.6885420685318</v>
       </c>
       <c r="S8" t="n">
-        <v>199.3388422683657</v>
+        <v>197.7088663116583</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2360767683434</v>
+        <v>220.9229568670604</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3116650554863</v>
+        <v>251.3059427043492</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.1162033606113</v>
+        <v>137.0779317633542</v>
       </c>
       <c r="H9" t="n">
-        <v>110.0400714587611</v>
+        <v>109.670448401041</v>
       </c>
       <c r="I9" t="n">
-        <v>81.57025850753571</v>
+        <v>80.25257412828806</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>86.04443858424106</v>
+        <v>83.6682423966449</v>
       </c>
       <c r="S9" t="n">
-        <v>167.4609169195921</v>
+        <v>166.7500387863292</v>
       </c>
       <c r="T9" t="n">
-        <v>199.2484945518885</v>
+        <v>199.094233157681</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9264272255407</v>
+        <v>225.9239093573001</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.800407102325</v>
+        <v>167.7683214808109</v>
       </c>
       <c r="H10" t="n">
-        <v>160.5328119029052</v>
+        <v>160.247541558898</v>
       </c>
       <c r="I10" t="n">
-        <v>149.7194474428005</v>
+        <v>148.754545297631</v>
       </c>
       <c r="J10" t="n">
-        <v>79.88572160801854</v>
+        <v>77.61726816697156</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1284606132557471</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.20421551307871</v>
+        <v>67.51748224247515</v>
       </c>
       <c r="R10" t="n">
-        <v>168.724569751375</v>
+        <v>167.2818835331136</v>
       </c>
       <c r="S10" t="n">
-        <v>220.6954433550782</v>
+        <v>220.1362784783279</v>
       </c>
       <c r="T10" t="n">
-        <v>227.1313261520738</v>
+        <v>226.9942330419681</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3086345061563</v>
+        <v>286.3068843813464</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>46.97513661859165</v>
       </c>
       <c r="R16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.99530231853382</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28977,7 +28979,7 @@
         <v>69.99530231853382</v>
       </c>
       <c r="I22" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29056,7 +29058,7 @@
         <v>69.99530231853382</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29250,7 +29252,7 @@
         <v>69.99530231853382</v>
       </c>
       <c r="U25" t="n">
-        <v>69.99530231853382</v>
+        <v>69.99530231853458</v>
       </c>
       <c r="V25" t="n">
         <v>69.99530231853382</v>
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859306</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="C35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="D35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="E35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="F35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="G35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="H35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="T35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="U35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="V35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="W35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="X35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="Y35" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="C37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="D37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="E37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="F37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="G37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="H37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="I37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="S37" t="n">
-        <v>55.97322403788229</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="T37" t="n">
-        <v>70.93010753724394</v>
+        <v>55.97322403788243</v>
       </c>
       <c r="U37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="V37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="W37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="X37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="C38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="D38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="E38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="F38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="G38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="H38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="T38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="U38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="V38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="W38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="X38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="Y38" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.93010753724394</v>
+        <v>55.97322403788219</v>
       </c>
       <c r="C40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="D40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="E40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="F40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="G40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="H40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="I40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="S40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="T40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="U40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="V40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="W40" t="n">
-        <v>55.97322403788263</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="X40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.93010753724394</v>
+        <v>70.93010753724391</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30480,7 @@
         <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>23.95497091865137</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.95497091865137</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.424848154377601</v>
+        <v>0.4963775435913134</v>
       </c>
       <c r="H8" t="n">
-        <v>4.350976161019607</v>
+        <v>5.08352651830454</v>
       </c>
       <c r="I8" t="n">
-        <v>16.37895847164248</v>
+        <v>19.13659524930413</v>
       </c>
       <c r="J8" t="n">
-        <v>36.05845604260594</v>
+        <v>42.12942354038327</v>
       </c>
       <c r="K8" t="n">
-        <v>54.0422784174098</v>
+        <v>63.14108496060359</v>
       </c>
       <c r="L8" t="n">
-        <v>67.04422512194333</v>
+        <v>78.33209921028626</v>
       </c>
       <c r="M8" t="n">
-        <v>74.59961848735598</v>
+        <v>87.15955335112827</v>
       </c>
       <c r="N8" t="n">
-        <v>75.80671830598135</v>
+        <v>88.56988604685711</v>
       </c>
       <c r="O8" t="n">
-        <v>71.58213447088907</v>
+        <v>83.63403184777097</v>
       </c>
       <c r="P8" t="n">
-        <v>61.09369565969204</v>
+        <v>71.37971124036041</v>
       </c>
       <c r="Q8" t="n">
-        <v>45.87882113104419</v>
+        <v>53.60319046049649</v>
       </c>
       <c r="R8" t="n">
-        <v>26.687367877422</v>
+        <v>31.18057587261787</v>
       </c>
       <c r="S8" t="n">
-        <v>9.681227317879591</v>
+        <v>11.31120327458706</v>
       </c>
       <c r="T8" t="n">
-        <v>1.859772795787949</v>
+        <v>2.172892697070976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03398785235020807</v>
+        <v>0.03971020348730506</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2273138025992986</v>
+        <v>0.2655853998564279</v>
       </c>
       <c r="H9" t="n">
-        <v>2.195372777735332</v>
+        <v>2.564995835455502</v>
       </c>
       <c r="I9" t="n">
-        <v>7.826374343879363</v>
+        <v>9.144058723127015</v>
       </c>
       <c r="J9" t="n">
-        <v>21.47616939382234</v>
+        <v>25.09199604520752</v>
       </c>
       <c r="K9" t="n">
-        <v>36.70619416797535</v>
+        <v>42.88621783558819</v>
       </c>
       <c r="L9" t="n">
-        <v>49.35600788455386</v>
+        <v>57.66581236794941</v>
       </c>
       <c r="M9" t="n">
-        <v>57.59613322877843</v>
+        <v>67.29328311274492</v>
       </c>
       <c r="N9" t="n">
-        <v>59.12053149270093</v>
+        <v>69.07433607932597</v>
       </c>
       <c r="O9" t="n">
-        <v>54.08373618247436</v>
+        <v>63.18952274566512</v>
       </c>
       <c r="P9" t="n">
-        <v>43.40696639284327</v>
+        <v>50.7151628901279</v>
       </c>
       <c r="Q9" t="n">
-        <v>29.01640750372802</v>
+        <v>33.90174332202403</v>
       </c>
       <c r="R9" t="n">
-        <v>14.11339556840207</v>
+        <v>16.48959175599823</v>
       </c>
       <c r="S9" t="n">
-        <v>4.222254184245742</v>
+        <v>4.933132317508647</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9162341429331377</v>
+        <v>1.070495537140602</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01495485543416439</v>
+        <v>0.017472723674765</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1905722561337232</v>
+        <v>0.2226578776478249</v>
       </c>
       <c r="H10" t="n">
-        <v>1.694360604534376</v>
+        <v>1.979630948541572</v>
       </c>
       <c r="I10" t="n">
-        <v>5.731027484457786</v>
+        <v>6.69592962962732</v>
       </c>
       <c r="J10" t="n">
-        <v>13.47345850865423</v>
+        <v>15.74191194970122</v>
       </c>
       <c r="K10" t="n">
-        <v>22.14103121262711</v>
+        <v>25.86879705762911</v>
       </c>
       <c r="L10" t="n">
-        <v>28.33289706191736</v>
+        <v>33.10315391865936</v>
       </c>
       <c r="M10" t="n">
-        <v>29.87306738648898</v>
+        <v>34.90263440255859</v>
       </c>
       <c r="N10" t="n">
-        <v>29.16275261362695</v>
+        <v>34.07272776768946</v>
       </c>
       <c r="O10" t="n">
-        <v>26.9365221669739</v>
+        <v>31.47167892425803</v>
       </c>
       <c r="P10" t="n">
-        <v>23.04884814184593</v>
+        <v>26.92945822024238</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.95782773861568</v>
+        <v>18.64456100921923</v>
       </c>
       <c r="R10" t="n">
-        <v>8.568821625794497</v>
+        <v>10.01150784405583</v>
       </c>
       <c r="S10" t="n">
-        <v>3.321154681894066</v>
+        <v>3.880319558644366</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8142632762077261</v>
+        <v>0.9513563863134337</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01039485033456673</v>
+        <v>0.01214497514442683</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623199</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35586,7 +35588,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306679</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>125.3693751564853</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36060,7 +36062,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789376</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>616.2998328765048</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>581.7770462459636</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,16 +36527,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>612.0264629219438</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,10 +36758,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36770,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>358.9411069805484</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>825.922901277619</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,10 +36995,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37007,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>816.7532245538755</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>586.457590004947</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219371</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37950,13 +37952,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.53338753171757</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>230.0026304629709</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>343.7123430888494</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>371.5883503121352</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>368.8119170861914</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>326.3081011412911</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>258.9120420637618</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.349209456545</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
